--- a/server/LISTAS/mi/BARRAL DE SEGURIDAD PARA BAÑO DISMAY.xlsx
+++ b/server/LISTAS/mi/BARRAL DE SEGURIDAD PARA BAÑO DISMAY.xlsx
@@ -760,7 +760,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="n">
-        <v>45289</v>
+        <v>45306</v>
       </c>
       <c r="E1" s="7" t="n"/>
     </row>

--- a/server/LISTAS/mi/BARRAL DE SEGURIDAD PARA BAÑO DISMAY.xlsx
+++ b/server/LISTAS/mi/BARRAL DE SEGURIDAD PARA BAÑO DISMAY.xlsx
@@ -760,7 +760,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="E1" s="7" t="n"/>
     </row>

--- a/server/LISTAS/mi/BARRAL DE SEGURIDAD PARA BAÑO DISMAY.xlsx
+++ b/server/LISTAS/mi/BARRAL DE SEGURIDAD PARA BAÑO DISMAY.xlsx
@@ -760,7 +760,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="E1" s="7" t="n"/>
     </row>
@@ -840,7 +840,7 @@
       </c>
       <c r="C33" s="26" t="n"/>
       <c r="D33" s="27" t="n">
-        <v>3773.438</v>
+        <v>9431.802</v>
       </c>
       <c r="E33" s="28" t="n"/>
       <c r="F33" s="28" t="n"/>
@@ -858,7 +858,7 @@
       </c>
       <c r="C34" s="26" t="n"/>
       <c r="D34" s="27" t="n">
-        <v>4465.125</v>
+        <v>11160.692</v>
       </c>
       <c r="E34" s="28" t="n"/>
       <c r="F34" s="28" t="n"/>
@@ -876,7 +876,7 @@
       </c>
       <c r="C35" s="26" t="n"/>
       <c r="D35" s="29" t="n">
-        <v>5515.125</v>
+        <v>13785.194</v>
       </c>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -894,7 +894,7 @@
       </c>
       <c r="C36" s="26" t="n"/>
       <c r="D36" s="29" t="n">
-        <v>6151.688</v>
+        <v>15376.297</v>
       </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -912,7 +912,7 @@
       </c>
       <c r="C37" s="26" t="n"/>
       <c r="D37" s="29" t="n">
-        <v>6361.688</v>
+        <v>15901.197</v>
       </c>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -931,16 +931,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/BARRAL DE SEGURIDAD PARA BAÑO DISMAY.xlsx
+++ b/server/LISTAS/mi/BARRAL DE SEGURIDAD PARA BAÑO DISMAY.xlsx
@@ -760,7 +760,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="E1" s="7" t="n"/>
     </row>

--- a/server/LISTAS/mi/BARRAL DE SEGURIDAD PARA BAÑO DISMAY.xlsx
+++ b/server/LISTAS/mi/BARRAL DE SEGURIDAD PARA BAÑO DISMAY.xlsx
@@ -760,7 +760,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="7" t="n"/>
     </row>
@@ -931,16 +931,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/BARRAL DE SEGURIDAD PARA BAÑO DISMAY.xlsx
+++ b/server/LISTAS/mi/BARRAL DE SEGURIDAD PARA BAÑO DISMAY.xlsx
@@ -760,7 +760,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="7" t="n"/>
     </row>
@@ -931,16 +931,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/BARRAL DE SEGURIDAD PARA BAÑO DISMAY.xlsx
+++ b/server/LISTAS/mi/BARRAL DE SEGURIDAD PARA BAÑO DISMAY.xlsx
@@ -760,7 +760,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="7" t="n"/>
     </row>
@@ -931,16 +931,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/BARRAL DE SEGURIDAD PARA BAÑO DISMAY.xlsx
+++ b/server/LISTAS/mi/BARRAL DE SEGURIDAD PARA BAÑO DISMAY.xlsx
@@ -760,7 +760,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
       <c r="E1" s="7" t="n"/>
     </row>
@@ -840,7 +840,7 @@
       </c>
       <c r="C33" s="26" t="n"/>
       <c r="D33" s="27" t="n">
-        <v>3773.438</v>
+        <v>9431.802</v>
       </c>
       <c r="E33" s="28" t="n"/>
       <c r="F33" s="28" t="n"/>
@@ -858,7 +858,7 @@
       </c>
       <c r="C34" s="26" t="n"/>
       <c r="D34" s="27" t="n">
-        <v>4465.125</v>
+        <v>11160.692</v>
       </c>
       <c r="E34" s="28" t="n"/>
       <c r="F34" s="28" t="n"/>
@@ -876,7 +876,7 @@
       </c>
       <c r="C35" s="26" t="n"/>
       <c r="D35" s="29" t="n">
-        <v>5515.125</v>
+        <v>13785.194</v>
       </c>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -894,7 +894,7 @@
       </c>
       <c r="C36" s="26" t="n"/>
       <c r="D36" s="29" t="n">
-        <v>6151.688</v>
+        <v>15376.297</v>
       </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -912,7 +912,7 @@
       </c>
       <c r="C37" s="26" t="n"/>
       <c r="D37" s="29" t="n">
-        <v>6361.688</v>
+        <v>15901.197</v>
       </c>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -931,16 +931,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>
